--- a/civic/distinction.xlsx
+++ b/civic/distinction.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charles/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charles/Programming/PythonPractice/civic/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:O33"/>
+      <selection activeCell="A2" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -444,7 +444,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>39.683981000000003</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>39.701052000000004</v>
@@ -478,7 +478,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>39.718122999999999</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>39.735194</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>39.752265000000001</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>39.769336000000003</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>39.786406999999997</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>39.803477999999998</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>39.820549</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>39.837620000000001</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>39.683981000000003</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>39.701052000000004</v>
@@ -648,7 +648,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>39.718122999999999</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>39.735194</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>39.752265000000001</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>39.769336000000003</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>39.786406999999997</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>39.803477999999998</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>39.820549</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>39.837620000000001</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>39.683981000000003</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>39.701052000000004</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>39.718122999999999</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>39.735194</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>39.752265000000001</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>39.769336000000003</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>39.786406999999997</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>39.803477999999998</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>39.820549</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>39.837620000000001</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>39.683981000000003</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>39.701052000000004</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>39.718122999999999</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>39.735194</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>39.752265000000001</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>39.769336000000003</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>39.786406999999997</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>39.803477999999998</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>39.820549</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>39.837620000000001</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>39.683981000000003</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>39.701052000000004</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>39.718122999999999</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>39.735194</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>39.752265000000001</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>39.769336000000003</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>39.786406999999997</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>39.803477999999998</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>39.820549</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>39.837620000000001</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>39.683981000000003</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>39.701052000000004</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>39.718122999999999</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>39.735194</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>39.752265000000001</v>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>39.769336000000003</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>39.786406999999997</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>39.803477999999998</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>39.820549</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>39.837620000000001</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>39.683981000000003</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>39.701052000000004</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>39.718122999999999</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>39.735194</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>39.752265000000001</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>39.769336000000003</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>39.786406999999997</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>39.803477999999998</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>39.820549</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>39.837620000000001</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>39.683981000000003</v>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73">
         <v>39.701052000000004</v>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>39.718122999999999</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>39.735194</v>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>39.752265000000001</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>39.769336000000003</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>39.786406999999997</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>39.803477999999998</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80">
         <v>39.820549</v>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81">
         <v>39.837620000000001</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82">
         <v>39.683981000000003</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83">
         <v>39.701052000000004</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <v>39.718122999999999</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85">
         <v>39.735194</v>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>39.752265000000001</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>39.769336000000003</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88">
         <v>39.786406999999997</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89">
         <v>39.803477999999998</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90">
         <v>39.820549</v>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>39.837620000000001</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>39.683981000000003</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>39.701052000000004</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94">
         <v>39.718122999999999</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95">
         <v>39.735194</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96">
         <v>39.752265000000001</v>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97">
         <v>39.769336000000003</v>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98">
         <v>39.786406999999997</v>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99">
         <v>39.803477999999998</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100">
         <v>39.820549</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101">
         <v>39.837620000000001</v>
